--- a/PCB_Project_Source_IoT/Project Outputs for PCB_Project_Source_IoT/BOM/Bill of Materials-PCB_Project_Source_IoT.xlsx
+++ b/PCB_Project_Source_IoT/Project Outputs for PCB_Project_Source_IoT/BOM/Bill of Materials-PCB_Project_Source_IoT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonatas.kinas\Documents\Source_IoT\PCB_Project_Source_IoT\Project Outputs for PCB_Project_Source_IoT\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475CFE21-ABAB-408E-A791-6F23B734AC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05DD5BD3-0FFE-4678-9069-4500C064FAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{21897153-7DC8-4A57-8222-6E500058D9CF}"/>
   </bookViews>
@@ -123,7 +123,10 @@
     <t>PCB_Project_Source_IoT.BomDoc</t>
   </si>
   <si>
-    <t>11/11/2024</t>
+    <t>v.0.1</t>
+  </si>
+  <si>
+    <t>22/11/2024</t>
   </si>
   <si>
     <t>Quantity</t>
@@ -529,9 +532,6 @@
   </si>
   <si>
     <t>Supplier Subtotal 1</t>
-  </si>
-  <si>
-    <t>v.0.2</t>
   </si>
 </sst>
 </file>
@@ -836,35 +836,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1313,7 +1313,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:K8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,65 +1363,65 @@
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="C8" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
+      <c r="C9" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
@@ -1442,31 +1442,31 @@
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="30" x14ac:dyDescent="0.25">
@@ -1478,61 +1478,61 @@
         <v>4</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I13" s="19">
-        <v>329324</v>
+        <v>316661</v>
       </c>
       <c r="J13" s="21">
-        <v>3.1E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="K13" s="21">
-        <v>0.31</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="19">
-        <f t="shared" ref="B14:B42" si="0">ROW(B14)-ROW($B$12)</f>
+        <f t="shared" ref="B14:B43" si="0">ROW(B14)-ROW($B$12)</f>
         <v>2</v>
       </c>
       <c r="C14" s="19">
         <v>2</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I14" s="19">
-        <v>900030</v>
+        <v>762600</v>
       </c>
       <c r="J14" s="21">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="K14" s="21">
-        <v>0.52</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="30" x14ac:dyDescent="0.25">
@@ -1544,28 +1544,28 @@
         <v>1</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I15" s="19">
-        <v>1103273</v>
+        <v>1075805</v>
       </c>
       <c r="J15" s="21">
-        <v>0.36</v>
+        <v>0.26</v>
       </c>
       <c r="K15" s="21">
-        <v>0.36</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="30" x14ac:dyDescent="0.25">
@@ -1577,22 +1577,22 @@
         <v>2</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I16" s="19">
-        <v>2068027</v>
+        <v>2067686</v>
       </c>
       <c r="J16" s="21">
         <v>0.27</v>
@@ -1610,28 +1610,28 @@
         <v>1</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I17" s="19">
-        <v>3845</v>
+        <v>3311</v>
       </c>
       <c r="J17" s="21">
-        <v>0.69</v>
+        <v>0.51</v>
       </c>
       <c r="K17" s="21">
-        <v>0.69</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="30" x14ac:dyDescent="0.25">
@@ -1643,22 +1643,22 @@
         <v>5</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I18" s="19">
-        <v>648803</v>
+        <v>634631</v>
       </c>
       <c r="J18" s="21">
         <v>0.24</v>
@@ -1676,22 +1676,22 @@
         <v>2</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I19" s="19">
-        <v>599861</v>
+        <v>598438</v>
       </c>
       <c r="J19" s="21">
         <v>0.1</v>
@@ -1709,22 +1709,22 @@
         <v>1</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I20" s="19">
-        <v>70366</v>
+        <v>70239</v>
       </c>
       <c r="J20" s="21">
         <v>0.28999999999999998</v>
@@ -1742,22 +1742,22 @@
         <v>5</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I21" s="19">
-        <v>39177</v>
+        <v>35869</v>
       </c>
       <c r="J21" s="21">
         <v>0.41</v>
@@ -1775,22 +1775,22 @@
         <v>1</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I22" s="19">
-        <v>377634</v>
+        <v>377044</v>
       </c>
       <c r="J22" s="21">
         <v>0.22</v>
@@ -1808,22 +1808,22 @@
         <v>1</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I23" s="19">
-        <v>30651</v>
+        <v>28721</v>
       </c>
       <c r="J23" s="21">
         <v>0.32</v>
@@ -1841,22 +1841,22 @@
         <v>1</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I24" s="19">
-        <v>6349</v>
+        <v>3849</v>
       </c>
       <c r="J24" s="21">
         <v>0.47</v>
@@ -1874,22 +1874,22 @@
         <v>4</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I25" s="19">
-        <v>112594</v>
+        <v>112391</v>
       </c>
       <c r="J25" s="21">
         <v>1.34</v>
@@ -1907,22 +1907,22 @@
         <v>4</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I26" s="19">
-        <v>197636</v>
+        <v>196691</v>
       </c>
       <c r="J26" s="21">
         <v>0.7</v>
@@ -1940,22 +1940,22 @@
         <v>1</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I27" s="19">
-        <v>1804</v>
+        <v>1742</v>
       </c>
       <c r="J27" s="21">
         <v>0.42</v>
@@ -1973,22 +1973,22 @@
         <v>2</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H28" s="19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I28" s="19">
-        <v>238357</v>
+        <v>237957</v>
       </c>
       <c r="J28" s="21">
         <v>0.1</v>
@@ -2006,22 +2006,22 @@
         <v>5</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I29" s="19">
-        <v>814565</v>
+        <v>807068</v>
       </c>
       <c r="J29" s="21">
         <v>2.7E-2</v>
@@ -2039,22 +2039,22 @@
         <v>3</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I30" s="19">
-        <v>1551596</v>
+        <v>1544810</v>
       </c>
       <c r="J30" s="21">
         <v>0.1</v>
@@ -2072,22 +2072,22 @@
         <v>1</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I31" s="19">
-        <v>1463859</v>
+        <v>1414483</v>
       </c>
       <c r="J31" s="21">
         <v>0.1</v>
@@ -2105,22 +2105,22 @@
         <v>1</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I32" s="19">
-        <v>134954</v>
+        <v>132054</v>
       </c>
       <c r="J32" s="21">
         <v>0.11</v>
@@ -2138,22 +2138,22 @@
         <v>1</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I33" s="19">
-        <v>91345</v>
+        <v>192975</v>
       </c>
       <c r="J33" s="21">
         <v>0.1</v>
@@ -2171,22 +2171,22 @@
         <v>1</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I34" s="19">
-        <v>57025</v>
+        <v>57015</v>
       </c>
       <c r="J34" s="21">
         <v>0.11</v>
@@ -2204,22 +2204,22 @@
         <v>1</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I35" s="19">
-        <v>149233</v>
+        <v>149107</v>
       </c>
       <c r="J35" s="21">
         <v>0.1</v>
@@ -2237,19 +2237,19 @@
         <v>1</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I36" s="19">
         <v>22156</v>
@@ -2270,22 +2270,22 @@
         <v>2</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I37" s="19">
-        <v>31893</v>
+        <v>31505</v>
       </c>
       <c r="J37" s="21">
         <v>0.32</v>
@@ -2303,22 +2303,22 @@
         <v>1</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I38" s="19">
-        <v>181441</v>
+        <v>11441</v>
       </c>
       <c r="J38" s="21">
         <v>0.1</v>
@@ -2336,28 +2336,28 @@
         <v>1</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I39" s="19">
         <v>6943</v>
       </c>
       <c r="J39" s="21">
-        <v>0.23</v>
+        <v>0.33</v>
       </c>
       <c r="K39" s="21">
-        <v>0.23</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="30" x14ac:dyDescent="0.25">
@@ -2369,22 +2369,22 @@
         <v>1</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I40" s="19">
-        <v>16299</v>
+        <v>29947</v>
       </c>
       <c r="J40" s="21">
         <v>1.32</v>
@@ -2402,22 +2402,22 @@
         <v>1</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H41" s="19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I41" s="19">
-        <v>94379</v>
+        <v>92319</v>
       </c>
       <c r="J41" s="21">
         <v>0.76</v>
@@ -2435,22 +2435,22 @@
         <v>1</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I42" s="19">
-        <v>14235</v>
+        <v>15246</v>
       </c>
       <c r="J42" s="21">
         <v>0.72</v>
@@ -2468,22 +2468,22 @@
         <v>1</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I43" s="19">
-        <v>40272</v>
+        <v>39272</v>
       </c>
       <c r="J43" s="21">
         <v>0.36</v>
@@ -2498,16 +2498,16 @@
         <f>SUM(C13:C43)</f>
         <v>59</v>
       </c>
-      <c r="D44" s="51"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="53"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="52"/>
       <c r="K44" s="24">
         <f>SUM(K13:K43)</f>
-        <v>21.27000000000001</v>
+        <v>20.810000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -2563,11 +2563,11 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:9" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -2586,14 +2586,14 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
     </row>
@@ -2618,11 +2618,11 @@
       </c>
       <c r="B12" s="8">
         <f>BoM!K44</f>
-        <v>21.27000000000001</v>
+        <v>20.810000000000002</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" ref="C12:C17" si="0">B12*$B$22</f>
-        <v>119.89473600000005</v>
+        <v>117.30180800000001</v>
       </c>
       <c r="D12" s="37"/>
       <c r="E12" s="38"/>
@@ -2655,11 +2655,11 @@
       </c>
       <c r="B14" s="8">
         <f>0.6*SUM(B12:B13)</f>
-        <v>36.762000000000008</v>
+        <v>36.485999999999997</v>
       </c>
       <c r="C14" s="9">
         <f t="shared" si="0"/>
-        <v>207.22004160000003</v>
+        <v>205.66428479999999</v>
       </c>
       <c r="D14" s="37"/>
       <c r="E14" s="38"/>
@@ -2674,11 +2674,11 @@
       </c>
       <c r="B15" s="8">
         <f>SUM(B12:B14)*0.18/0.82</f>
-        <v>21.519219512195125</v>
+        <v>21.357658536585365</v>
       </c>
       <c r="C15" s="9">
         <f t="shared" si="0"/>
-        <v>121.29953654634149</v>
+        <v>120.38884963902439</v>
       </c>
       <c r="D15" s="37"/>
       <c r="E15" s="38"/>
@@ -2707,11 +2707,11 @@
       </c>
       <c r="B17" s="15">
         <f>SUM(B14:B16)</f>
-        <v>75.151219512195141</v>
+        <v>74.71365853658537</v>
       </c>
       <c r="C17" s="16">
         <f t="shared" si="0"/>
-        <v>423.61239414634156</v>
+        <v>421.14595043902443</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="38"/>
@@ -2720,11 +2720,11 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:9" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -2744,7 +2744,7 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="str">
         <f ca="1">"USD &lt;-&gt; BRL (" &amp; TEXT(TODAY(),"DD/MM/AA") &amp;")"</f>
-        <v>USD &lt;-&gt; BRL (11/11/24)</v>
+        <v>USD &lt;-&gt; BRL (22/11/24)</v>
       </c>
       <c r="B21" s="33">
         <v>5.42</v>
@@ -2765,14 +2765,14 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
@@ -2780,11 +2780,11 @@
       </c>
       <c r="B24" s="8">
         <f>SUM(B12:B13)</f>
-        <v>61.27000000000001</v>
+        <v>60.81</v>
       </c>
       <c r="C24" s="9">
         <f>B24*$B$22</f>
-        <v>345.36673600000006</v>
+        <v>342.77380800000003</v>
       </c>
       <c r="D24" s="37"/>
       <c r="E24" s="38"/>
@@ -2797,11 +2797,11 @@
       </c>
       <c r="B25" s="8">
         <f>SUM(B14:B16)</f>
-        <v>75.151219512195141</v>
+        <v>74.71365853658537</v>
       </c>
       <c r="C25" s="9">
         <f>B25*$B$22</f>
-        <v>423.61239414634156</v>
+        <v>421.14595043902443</v>
       </c>
       <c r="D25" s="37"/>
       <c r="E25" s="38"/>
@@ -2814,11 +2814,11 @@
       </c>
       <c r="B26" s="28">
         <f>SUM(B24:B25)</f>
-        <v>136.42121951219514</v>
+        <v>135.52365853658537</v>
       </c>
       <c r="C26" s="26">
         <f t="shared" ref="C26" si="1">SUM(C24:C25)</f>
-        <v>768.97913014634162</v>
+        <v>763.91975843902446</v>
       </c>
       <c r="D26" s="39"/>
       <c r="E26" s="40"/>
@@ -2826,22 +2826,22 @@
       <c r="G26" s="40"/>
     </row>
     <row r="27" spans="1:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="43"/>
       <c r="E27" s="43"/>
       <c r="F27" s="44"/>
       <c r="G27" s="45"/>
     </row>
     <row r="28" spans="1:9" s="41" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="46"/>
       <c r="E28" s="46"/>
       <c r="F28" s="43"/>
@@ -2859,16 +2859,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -2876,26 +2876,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="eafd81bd-aa47-44fe-a879-d8b0a59d073f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="67754bcf-640a-45dc-a4a1-3295cc8f1c13">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100983A3410C182AB469BFD6543519C0FE4" ma:contentTypeVersion="12" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="2fe405e9385892723840c96a6d735dcf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67754bcf-640a-45dc-a4a1-3295cc8f1c13" xmlns:ns3="eafd81bd-aa47-44fe-a879-d8b0a59d073f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e3278376455a019c4f3e06f3cbff1cf" ns2:_="" ns3:_="">
     <xsd:import namespace="67754bcf-640a-45dc-a4a1-3295cc8f1c13"/>
@@ -3098,26 +3078,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ECEDFC9-7F99-4013-85DF-09F0F86F7B6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="eafd81bd-aa47-44fe-a879-d8b0a59d073f"/>
-    <ds:schemaRef ds:uri="67754bcf-640a-45dc-a4a1-3295cc8f1c13"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B4973F1-FB21-417F-AF6C-D9174DD308EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="eafd81bd-aa47-44fe-a879-d8b0a59d073f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="67754bcf-640a-45dc-a4a1-3295cc8f1c13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A013DF8D-4E7A-4B00-A047-BE5897B9F82D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3134,4 +3115,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B4973F1-FB21-417F-AF6C-D9174DD308EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ECEDFC9-7F99-4013-85DF-09F0F86F7B6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="eafd81bd-aa47-44fe-a879-d8b0a59d073f"/>
+    <ds:schemaRef ds:uri="67754bcf-640a-45dc-a4a1-3295cc8f1c13"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>